--- a/src/logger/xlsx/erog_logs.xlsx
+++ b/src/logger/xlsx/erog_logs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t>Impianto Codice</t>
   </si>
@@ -20,6 +20,456 @@
   </si>
   <si>
     <t>Orario Ultima Erogazione</t>
+  </si>
+  <si>
+    <t>2653 BOLZANO VOLTA</t>
+  </si>
+  <si>
+    <t>27/06/2025, 03:34:07</t>
+  </si>
+  <si>
+    <t>1118 CINISELLO BALSAMO</t>
+  </si>
+  <si>
+    <t>27/06/2025, 03:12:55</t>
+  </si>
+  <si>
+    <t>1160 SOVICO</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:40:48</t>
+  </si>
+  <si>
+    <t>1171 MONZA</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:33:58</t>
+  </si>
+  <si>
+    <t>1183 BRESSO</t>
+  </si>
+  <si>
+    <t>27/06/2025, 03:05:58</t>
+  </si>
+  <si>
+    <t>1339 MILANO</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:21:58</t>
+  </si>
+  <si>
+    <t>1353 BOLLATE</t>
+  </si>
+  <si>
+    <t>27/06/2025, 03:30:34</t>
+  </si>
+  <si>
+    <t>1367 VERANO BRIANZA</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:36:40</t>
+  </si>
+  <si>
+    <t>1427 BERGAMO</t>
+  </si>
+  <si>
+    <t>27/06/2025, 03:03:07</t>
+  </si>
+  <si>
+    <t>1618 SARONNO</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:38:56</t>
+  </si>
+  <si>
+    <t>1656 COMABBIO</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:39:26</t>
+  </si>
+  <si>
+    <t>1709 TOSCOLANO</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:32:58</t>
+  </si>
+  <si>
+    <t>1711 SIRMIONE</t>
+  </si>
+  <si>
+    <t>27/06/2025, 03:24:36</t>
+  </si>
+  <si>
+    <t>1712 SALO'</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:40:01</t>
+  </si>
+  <si>
+    <t>1782 ROE' VOLCIANO</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:40:49</t>
+  </si>
+  <si>
+    <t>1932 PASSIRANO</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:44:28</t>
+  </si>
+  <si>
+    <t>2144 SPINEA</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:42:21</t>
+  </si>
+  <si>
+    <t>2201 ROVERETO</t>
+  </si>
+  <si>
+    <t>27/06/2025, 03:18:25</t>
+  </si>
+  <si>
+    <t>2203 TRENTO</t>
+  </si>
+  <si>
+    <t>27/06/2025, 02:49:37</t>
+  </si>
+  <si>
+    <t>2208 CALAVINO</t>
+  </si>
+  <si>
+    <t>27/06/2025, 03:12:03</t>
+  </si>
+  <si>
+    <t>2211 TRENTO</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:43:19</t>
+  </si>
+  <si>
+    <t>2214 VIGO DI FASSA</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:41:49</t>
+  </si>
+  <si>
+    <t>2215 TIONE</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:37:16</t>
+  </si>
+  <si>
+    <t>2217 PERGINE VALSUGANA</t>
+  </si>
+  <si>
+    <t>27/06/2025, 02:41:56</t>
+  </si>
+  <si>
+    <t>2218 ROVERE' DELLA LUNA</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:39:35</t>
+  </si>
+  <si>
+    <t>2221 VILLALAGARINA</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:45:24</t>
+  </si>
+  <si>
+    <t>2229 MEZZOCORONA</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:41:34</t>
+  </si>
+  <si>
+    <t>2234 CAMPOTRENTINO OVEST</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:47:24</t>
+  </si>
+  <si>
+    <t>2235 CAMPOTRENTINO EST</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:47:21</t>
+  </si>
+  <si>
+    <t>2237 DENNO PLAN DE CIAMPAGNA</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:41:48</t>
+  </si>
+  <si>
+    <t>2247 MORI</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:43:00</t>
+  </si>
+  <si>
+    <t>2249 RIVA DEL GARDA</t>
+  </si>
+  <si>
+    <t>27/06/2025, 02:23:08</t>
+  </si>
+  <si>
+    <t>2481 PADOVA</t>
+  </si>
+  <si>
+    <t>27/06/2025, 03:24:33</t>
+  </si>
+  <si>
+    <t>2601 BOLZANO CASTEL FIRMIANO</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:29:12</t>
+  </si>
+  <si>
+    <t>2617 CHIUSA</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:44:57</t>
+  </si>
+  <si>
+    <t>2620 EGNA</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:45:00</t>
+  </si>
+  <si>
+    <t>2622 SAN VIGILIO MAREBBE</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:37:20</t>
+  </si>
+  <si>
+    <t>2624 BRUNICO</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:46:24</t>
+  </si>
+  <si>
+    <t>2625 VARNA</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:47:17</t>
+  </si>
+  <si>
+    <t>2631 TERMENO</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:37:49</t>
+  </si>
+  <si>
+    <t>2638 TERLANO LOC. VILPIANO</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:41:59</t>
+  </si>
+  <si>
+    <t>2642 MERANO</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:50:25</t>
+  </si>
+  <si>
+    <t>2643 BRESSANONE</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:48:20</t>
+  </si>
+  <si>
+    <t>2647 FIE'</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:40:24</t>
+  </si>
+  <si>
+    <t>2649 SAN MARTINO VAL PASSIRIA</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:47:49</t>
+  </si>
+  <si>
+    <t>2660 CASTELBELLO</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:36:09</t>
+  </si>
+  <si>
+    <t>2662 VALDAORA</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:45:56</t>
+  </si>
+  <si>
+    <t>2664 BOLZANO-APPIANO</t>
+  </si>
+  <si>
+    <t>27/06/2025, 13:38:21</t>
+  </si>
+  <si>
+    <t>2718 BARDOLINO</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:52:19</t>
+  </si>
+  <si>
+    <t>2748 TORRI DEL BENACO</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:40:21</t>
+  </si>
+  <si>
+    <t>2775 LAVAGNO</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:44:32</t>
+  </si>
+  <si>
+    <t>2869 MALO</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:51:16</t>
+  </si>
+  <si>
+    <t>3504 CORVARA</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:32:39</t>
+  </si>
+  <si>
+    <t>3686 GRASSOBBIO</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:26:16</t>
+  </si>
+  <si>
+    <t>2759 MALCESINE</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:52:55</t>
+  </si>
+  <si>
+    <t>2618 MARLENGO</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:53:56</t>
+  </si>
+  <si>
+    <t>3505 LANA</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:47:29</t>
+  </si>
+  <si>
+    <t>2216 SOPRAMONTE</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:36:49</t>
+  </si>
+  <si>
+    <t>2242 PELUGO</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:53:06</t>
+  </si>
+  <si>
+    <t>2254 PANNONE</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:51:29</t>
+  </si>
+  <si>
+    <t>2645 San Michele Appiano</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:46:41</t>
+  </si>
+  <si>
+    <t>2228 IMER</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:21:36</t>
+  </si>
+  <si>
+    <t>2603 TERLANO NALLES 30</t>
+  </si>
+  <si>
+    <t>27/06/2025, 02:19:37</t>
+  </si>
+  <si>
+    <t>2205 STORO</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:43:11</t>
+  </si>
+  <si>
+    <t>1161 FONTANILI NORD</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:44:04</t>
+  </si>
+  <si>
+    <t>1162 FONTANILI SUD</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:53:22</t>
+  </si>
+  <si>
+    <t>1773 BRENO</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:51:55</t>
+  </si>
+  <si>
+    <t>3508 VANDOIES</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:49:47</t>
+  </si>
+  <si>
+    <t>2245 VALLARSA</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:54:14</t>
+  </si>
+  <si>
+    <t>1158 NOVA MILANESE</t>
+  </si>
+  <si>
+    <t>27/06/2025, 02:29:46</t>
+  </si>
+  <si>
+    <t>1492 DOLZAGO</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:54:15</t>
+  </si>
+  <si>
+    <t>0705 - VALDILANA</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:11:16</t>
+  </si>
+  <si>
+    <t>1000 DESIO</t>
+  </si>
+  <si>
+    <t>27/06/2025, 02:20:31</t>
+  </si>
+  <si>
+    <t>2200 ARCO</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:52:29</t>
+  </si>
+  <si>
+    <t>2621 BOLZANO VIA ROEN</t>
+  </si>
+  <si>
+    <t>27/06/2025, 14:27:59</t>
   </si>
 </sst>
 </file>
@@ -396,7 +846,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C76"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -415,6 +865,831 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>2338</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>4303</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>6404</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>7807</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>9003</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>10083</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>10967</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>13265</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>14199</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>16570</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>17646</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>18800</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>20070</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>21454</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>23209</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>24908</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <v>25941</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <v>27330</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20">
+        <v>28622</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21">
+        <v>29919</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <v>30342</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23">
+        <v>32345</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24">
+        <v>33599</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25">
+        <v>35229</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26">
+        <v>35776</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27">
+        <v>37522</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28">
+        <v>38518</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29">
+        <v>41112</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30">
+        <v>43460</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31">
+        <v>44732</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32">
+        <v>46112</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33">
+        <v>47258</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34">
+        <v>48860</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35">
+        <v>50135</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36">
+        <v>51719</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37">
+        <v>52776</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38">
+        <v>53682</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39">
+        <v>54738</v>
+      </c>
+      <c r="C39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40">
+        <v>56754</v>
+      </c>
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41">
+        <v>57896</v>
+      </c>
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42">
+        <v>59969</v>
+      </c>
+      <c r="C42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43">
+        <v>61387</v>
+      </c>
+      <c r="C43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44">
+        <v>62722</v>
+      </c>
+      <c r="C44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45">
+        <v>63544</v>
+      </c>
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46">
+        <v>64462</v>
+      </c>
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47">
+        <v>65410</v>
+      </c>
+      <c r="C47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48">
+        <v>66333</v>
+      </c>
+      <c r="C48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49">
+        <v>68765</v>
+      </c>
+      <c r="C49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50">
+        <v>70047</v>
+      </c>
+      <c r="C50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51">
+        <v>70948</v>
+      </c>
+      <c r="C51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52">
+        <v>72232</v>
+      </c>
+      <c r="C52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53">
+        <v>74511</v>
+      </c>
+      <c r="C53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54">
+        <v>75690</v>
+      </c>
+      <c r="C54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55">
+        <v>76568</v>
+      </c>
+      <c r="C55" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56">
+        <v>77953</v>
+      </c>
+      <c r="C56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57">
+        <v>79322</v>
+      </c>
+      <c r="C57" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58">
+        <v>80715</v>
+      </c>
+      <c r="C58" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59">
+        <v>81349</v>
+      </c>
+      <c r="C59" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60">
+        <v>81769</v>
+      </c>
+      <c r="C60" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61">
+        <v>82113</v>
+      </c>
+      <c r="C61" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62">
+        <v>82873</v>
+      </c>
+      <c r="C62" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63">
+        <v>83156</v>
+      </c>
+      <c r="C63" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64">
+        <v>85114</v>
+      </c>
+      <c r="C64" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65">
+        <v>85502</v>
+      </c>
+      <c r="C65" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66">
+        <v>86219</v>
+      </c>
+      <c r="C66" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67">
+        <v>89774</v>
+      </c>
+      <c r="C67" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68">
+        <v>91037</v>
+      </c>
+      <c r="C68" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69">
+        <v>92261</v>
+      </c>
+      <c r="C69" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>139</v>
+      </c>
+      <c r="B70">
+        <v>92482</v>
+      </c>
+      <c r="C70" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71">
+        <v>94102</v>
+      </c>
+      <c r="C71" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72">
+        <v>95492</v>
+      </c>
+      <c r="C72" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73">
+        <v>96694</v>
+      </c>
+      <c r="C73" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>147</v>
+      </c>
+      <c r="B74">
+        <v>96973</v>
+      </c>
+      <c r="C74" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>149</v>
+      </c>
+      <c r="B75">
+        <v>99126</v>
+      </c>
+      <c r="C75" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>151</v>
+      </c>
+      <c r="B76">
+        <v>99379</v>
+      </c>
+      <c r="C76" t="s">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
